--- a/12-29-24 to 01-04-25 Milwaukee Schedule.xlsx
+++ b/12-29-24 to 01-04-25 Milwaukee Schedule.xlsx
@@ -2197,7 +2197,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>STORE RESET-</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>

--- a/12-29-24 to 01-04-25 Milwaukee Schedule.xlsx
+++ b/12-29-24 to 01-04-25 Milwaukee Schedule.xlsx
@@ -1305,16 +1305,8 @@
       <c r="AA18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
@@ -1456,7 +1448,11 @@
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1524,7 +1520,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C22" t="inlineStr"/>
@@ -1581,7 +1577,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, MEQUON</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
@@ -1622,7 +1618,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MEQUON</t>
+          <t>7590 W MEQUON RD</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1680,7 +1676,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>7590 W MEQUON RD</t>
+          <t>https://goo.gl/maps/do2xmdVUL8z</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1739,11 +1735,7 @@
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/do2xmdVUL8z</t>
-        </is>
-      </c>
+      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
@@ -1791,9 +1783,21 @@
       <c r="AA26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Sante Fe available, Equip</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
@@ -1830,19 +1834,15 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sante Fe available, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
@@ -1883,12 +1883,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -1932,12 +1932,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
@@ -1993,12 +1993,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -2050,12 +2050,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
@@ -2105,16 +2105,8 @@
       <c r="AA32" t="inlineStr"/>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
+      <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
@@ -2208,7 +2200,11 @@
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
-      <c r="B35" t="inlineStr"/>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
@@ -2263,7 +2259,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
@@ -2312,7 +2308,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
@@ -2357,7 +2353,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, MILWAUKEE</t>
+          <t>100 E CAPITOL DR</t>
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
@@ -2410,7 +2406,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>100 E CAPITOL DR</t>
+          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
@@ -2461,11 +2457,7 @@
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/n94xpFtHzvE2</t>
-        </is>
-      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -2505,9 +2497,21 @@
       <c r="AA40" t="inlineStr"/>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr"/>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
@@ -2564,17 +2568,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -2634,12 +2638,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2699,12 +2703,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2756,12 +2760,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2813,12 +2817,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2873,21 +2877,9 @@
       <c r="AA46" t="inlineStr"/>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="inlineStr"/>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
@@ -2982,7 +2974,11 @@
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr"/>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5:00 AM START</t>
+        </is>
+      </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
@@ -3030,7 +3026,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>5:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
@@ -3075,7 +3071,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
@@ -3112,7 +3108,7 @@
       <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
-          <t>OUTPOST NATURAL FOODS, WAUWATOSA</t>
+          <t>7000 W STATE ST</t>
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
@@ -3145,7 +3141,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>7000 W STATE ST</t>
+          <t>https://goo.gl/maps/9Apjjj8M6672</t>
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
@@ -3193,11 +3189,7 @@
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9Apjjj8M6672</t>
-        </is>
-      </c>
+      <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr"/>
@@ -3237,9 +3229,21 @@
       <c r="AA54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
@@ -3268,17 +3272,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Anisha</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -3309,12 +3313,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Anisha</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -3354,12 +3358,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -3399,12 +3403,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -3444,12 +3448,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -3487,21 +3491,9 @@
       <c r="AA60" t="inlineStr"/>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
+      <c r="B61" t="inlineStr"/>
+      <c r="C61" t="inlineStr"/>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr"/>

--- a/12-29-24 to 01-04-25 Milwaukee Schedule.xlsx
+++ b/12-29-24 to 01-04-25 Milwaukee Schedule.xlsx
@@ -1171,7 +1171,11 @@
           <t>Jerry D</t>
         </is>
       </c>
-      <c r="AA16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1226,8 +1230,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>@ Store,
-Help w/ Training</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X17" t="inlineStr"/>
@@ -1354,8 +1357,7 @@
       <c r="W19" t="inlineStr">
         <is>
           <t>Driver,
-Red Van,
-1st Sendiks</t>
+Red Van</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
@@ -1429,8 +1431,7 @@
       <c r="W20" t="inlineStr">
         <is>
           <t>Driver,
-Optima,
-Help w/ Training</t>
+Optima</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
@@ -1506,11 +1507,7 @@
           <t>Lexi</t>
         </is>
       </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>1st Sendiks</t>
-        </is>
-      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -1563,11 +1560,7 @@
           <t>Leyna</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>1st Sendiks</t>
-        </is>
-      </c>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1772,11 +1765,7 @@
           <t>Sydney</t>
         </is>
       </c>
-      <c r="W26" t="inlineStr">
-        <is>
-          <t>1st Sendiks</t>
-        </is>
-      </c>
+      <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
@@ -2392,11 +2381,7 @@
           <t>Greg</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr">
-        <is>
-          <t>1st Sendiks</t>
-        </is>
-      </c>
+      <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
@@ -2917,8 +2902,7 @@
       </c>
       <c r="W47" t="inlineStr">
         <is>
-          <t>@ Store,
-1st Sendiks</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
